--- a/test/doc/result.xlsx
+++ b/test/doc/result.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{57A41544-69BA-A048-B1D7-B1403C5F9C9F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{65F90B72-7BFF-C74F-BF35-A5C6FB2D2853}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1300" yWindow="460" windowWidth="32300" windowHeight="20540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1300" yWindow="460" windowWidth="32300" windowHeight="20540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,26 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="377">
-  <si>
-    <t>hikari</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>druid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100 threads</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8 threads</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>remote jndi</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="600">
   <si>
     <t>Thread-87,avg:341</t>
   </si>
@@ -995,12 +976,6 @@
     <t>------ start ------</t>
   </si>
   <si>
-    <t>threads=10</t>
-  </si>
-  <si>
-    <t>count=1</t>
-  </si>
-  <si>
     <t>datasource=ucp</t>
   </si>
   <si>
@@ -1148,17 +1123,714 @@
     <t>Thread-8, avg=1218</t>
   </si>
   <si>
-    <t>oracle db in vm, window 8G pc</t>
-  </si>
-  <si>
-    <t>mysql in dockere, mac 2G</t>
+    <t>threads=100</t>
+  </si>
+  <si>
+    <t>threads=8</t>
+  </si>
+  <si>
+    <t>datasource=remote jndi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>8G windows pc, oracle db in vm
+db.minSize=1
+db.maxSize=50</t>
+  </si>
+  <si>
+    <t>count for each thread=1</t>
+  </si>
+  <si>
+    <t>count for each thread=128</t>
+  </si>
+  <si>
+    <t>Feb 01, 2019 2:59:10 PM com.alibaba.druid.pool.DruidDataSource info</t>
+  </si>
+  <si>
+    <t>Thread-9, avg=6</t>
+  </si>
+  <si>
+    <t>Thread-8, avg=6</t>
+  </si>
+  <si>
+    <t>Thread-11, avg=6</t>
+  </si>
+  <si>
+    <t>Thread-5, avg=6</t>
+  </si>
+  <si>
+    <t>Thread-4, avg=6</t>
+  </si>
+  <si>
+    <t>Thread-6, avg=6</t>
+  </si>
+  <si>
+    <t>Thread-10, avg=6</t>
+  </si>
+  <si>
+    <t>Thread-3, avg=6</t>
+  </si>
+  <si>
+    <t>Thread-2, avg=6</t>
+  </si>
+  <si>
+    <t>Thread-7, avg=6</t>
+  </si>
+  <si>
+    <t>Thread-4, avg=1</t>
+  </si>
+  <si>
+    <t>Thread-10, avg=1</t>
+  </si>
+  <si>
+    <t>Thread-7, avg=1</t>
+  </si>
+  <si>
+    <t>Thread-5, avg=1</t>
+  </si>
+  <si>
+    <t>Thread-3, avg=1</t>
+  </si>
+  <si>
+    <t>Thread-11, avg=1</t>
+  </si>
+  <si>
+    <t>Thread-9, avg=1</t>
+  </si>
+  <si>
+    <t>Thread-8, avg=1</t>
+  </si>
+  <si>
+    <t>Thread-6, avg=1</t>
+  </si>
+  <si>
+    <t>Thread-2, avg=1</t>
+  </si>
+  <si>
+    <t>count for each thread=1024</t>
+  </si>
+  <si>
+    <t>Feb 01, 2019 3:00:55 PM com.alibaba.druid.pool.DruidDataSource info</t>
+  </si>
+  <si>
+    <t>Thread-5, avg=0</t>
+  </si>
+  <si>
+    <t>Thread-10, avg=0</t>
+  </si>
+  <si>
+    <t>Thread-11, avg=0</t>
+  </si>
+  <si>
+    <t>Thread-9, avg=0</t>
+  </si>
+  <si>
+    <t>Thread-8, avg=0</t>
+  </si>
+  <si>
+    <t>Thread-3, avg=0</t>
+  </si>
+  <si>
+    <t>Thread-7, avg=0</t>
+  </si>
+  <si>
+    <t>Thread-6, avg=0</t>
+  </si>
+  <si>
+    <t>Thread-4, avg=0</t>
+  </si>
+  <si>
+    <t>Thread-2, avg=0</t>
+  </si>
+  <si>
+    <t>Thread-5, avg=46</t>
+  </si>
+  <si>
+    <t>Thread-4, avg=47</t>
+  </si>
+  <si>
+    <t>Thread-10, avg=47</t>
+  </si>
+  <si>
+    <t>Thread-8, avg=47</t>
+  </si>
+  <si>
+    <t>Thread-3, avg=47</t>
+  </si>
+  <si>
+    <t>Thread-6, avg=47</t>
+  </si>
+  <si>
+    <t>Thread-9, avg=47</t>
+  </si>
+  <si>
+    <t>Thread-11, avg=47</t>
+  </si>
+  <si>
+    <t>Thread-2, avg=47</t>
+  </si>
+  <si>
+    <t>Thread-7, avg=47</t>
+  </si>
+  <si>
+    <t>11 [Thread-2] INFO com.zaxxer.hikari.HikariDataSource - HikariPool-1 - Started.</t>
+  </si>
+  <si>
+    <t>8 [Thread-2] INFO com.zaxxer.hikari.HikariDataSource - HikariPool-1 - Started.</t>
+  </si>
+  <si>
+    <t>Thread-4, avg=5</t>
+  </si>
+  <si>
+    <t>Thread-5, avg=5</t>
+  </si>
+  <si>
+    <t>Thread-6, avg=5</t>
+  </si>
+  <si>
+    <t>Thread-11, avg=5</t>
+  </si>
+  <si>
+    <t>Thread-7, avg=5</t>
+  </si>
+  <si>
+    <t>Thread-9, avg=5</t>
+  </si>
+  <si>
+    <t>Thread-3, avg=5</t>
+  </si>
+  <si>
+    <t>Thread-8, avg=5</t>
+  </si>
+  <si>
+    <t>Thread-10, avg=5</t>
+  </si>
+  <si>
+    <t>Thread-2, avg=5</t>
+  </si>
+  <si>
+    <t>Thread-7, avg=9</t>
+  </si>
+  <si>
+    <t>Thread-9, avg=9</t>
+  </si>
+  <si>
+    <t>Thread-5, avg=9</t>
+  </si>
+  <si>
+    <t>Thread-6, avg=9</t>
+  </si>
+  <si>
+    <t>Thread-8, avg=9</t>
+  </si>
+  <si>
+    <t>Thread-4, avg=9</t>
+  </si>
+  <si>
+    <t>Thread-11, avg=9</t>
+  </si>
+  <si>
+    <t>Thread-10, avg=9</t>
+  </si>
+  <si>
+    <t>Thread-3, avg=9</t>
+  </si>
+  <si>
+    <t>Thread-2, avg=9</t>
+  </si>
+  <si>
+    <t>not good as druid/hikari</t>
+  </si>
+  <si>
+    <t>no min/max, bad</t>
+  </si>
+  <si>
+    <t>threads==maxSize</t>
+  </si>
+  <si>
+    <t>larger count, smaller average</t>
+  </si>
+  <si>
+    <t>Feb 01, 2019 4:04:40 PM com.alibaba.druid.pool.DruidDataSource info</t>
+  </si>
+  <si>
+    <t>Thread-19, avg=0</t>
+  </si>
+  <si>
+    <t>Thread-21, avg=0</t>
+  </si>
+  <si>
+    <t>Thread-12, avg=0</t>
+  </si>
+  <si>
+    <t>Thread-14, avg=0</t>
+  </si>
+  <si>
+    <t>Thread-31, avg=0</t>
+  </si>
+  <si>
+    <t>Thread-28, avg=0</t>
+  </si>
+  <si>
+    <t>Thread-16, avg=0</t>
+  </si>
+  <si>
+    <t>Thread-26, avg=0</t>
+  </si>
+  <si>
+    <t>Thread-20, avg=0</t>
+  </si>
+  <si>
+    <t>Thread-30, avg=0</t>
+  </si>
+  <si>
+    <t>Thread-22, avg=0</t>
+  </si>
+  <si>
+    <t>Thread-17, avg=1</t>
+  </si>
+  <si>
+    <t>Thread-23, avg=1</t>
+  </si>
+  <si>
+    <t>Thread-24, avg=1</t>
+  </si>
+  <si>
+    <t>Thread-27, avg=1</t>
+  </si>
+  <si>
+    <t>Thread-18, avg=1</t>
+  </si>
+  <si>
+    <t>Thread-13, avg=0</t>
+  </si>
+  <si>
+    <t>Thread-15, avg=1</t>
+  </si>
+  <si>
+    <t>thread &gt; maxSize</t>
+  </si>
+  <si>
+    <t>Thread-3, avg=134</t>
+  </si>
+  <si>
+    <t>Thread-23, avg=135</t>
+  </si>
+  <si>
+    <t>Thread-22, avg=135</t>
+  </si>
+  <si>
+    <t>Thread-30, avg=135</t>
+  </si>
+  <si>
+    <t>Thread-2, avg=135</t>
+  </si>
+  <si>
+    <t>Thread-27, avg=135</t>
+  </si>
+  <si>
+    <t>Thread-28, avg=135</t>
+  </si>
+  <si>
+    <t>Thread-13, avg=135</t>
+  </si>
+  <si>
+    <t>Thread-20, avg=135</t>
+  </si>
+  <si>
+    <t>Thread-14, avg=135</t>
+  </si>
+  <si>
+    <t>Thread-26, avg=135</t>
+  </si>
+  <si>
+    <t>Thread-12, avg=135</t>
+  </si>
+  <si>
+    <t>Thread-19, avg=135</t>
+  </si>
+  <si>
+    <t>Thread-17, avg=135</t>
+  </si>
+  <si>
+    <t>Thread-25, avg=135</t>
+  </si>
+  <si>
+    <t>Thread-11, avg=135</t>
+  </si>
+  <si>
+    <t>Thread-29, avg=135</t>
+  </si>
+  <si>
+    <t>Thread-6, avg=135</t>
+  </si>
+  <si>
+    <t>Thread-10, avg=135</t>
+  </si>
+  <si>
+    <t>Thread-7, avg=135</t>
+  </si>
+  <si>
+    <t>Thread-4, avg=135</t>
+  </si>
+  <si>
+    <t>Thread-31, avg=135</t>
+  </si>
+  <si>
+    <t>Thread-16, avg=135</t>
+  </si>
+  <si>
+    <t>Thread-24, avg=135</t>
+  </si>
+  <si>
+    <t>Thread-5, avg=135</t>
+  </si>
+  <si>
+    <t>Thread-7, avg=59</t>
+  </si>
+  <si>
+    <t>Thread-3, avg=60</t>
+  </si>
+  <si>
+    <t>Thread-2, avg=60</t>
+  </si>
+  <si>
+    <t>Thread-10, avg=60</t>
+  </si>
+  <si>
+    <t>Thread-11, avg=61</t>
+  </si>
+  <si>
+    <t>Thread-8, avg=61</t>
+  </si>
+  <si>
+    <t>Thread-5, avg=61</t>
+  </si>
+  <si>
+    <t>Thread-6, avg=61</t>
+  </si>
+  <si>
+    <t>Thread-4, avg=61</t>
+  </si>
+  <si>
+    <t>Thread-9, avg=61</t>
+  </si>
+  <si>
+    <t>remote jndi is bad</t>
+  </si>
+  <si>
+    <t>15 [Thread-2] INFO com.zaxxer.hikari.HikariDataSource - HikariPool-1 - Started.</t>
+  </si>
+  <si>
+    <t>Thread-15, avg=0</t>
+  </si>
+  <si>
+    <t>Thread-25, avg=0</t>
+  </si>
+  <si>
+    <t>Thread-17, avg=0</t>
+  </si>
+  <si>
+    <t>Thread-18, avg=0</t>
+  </si>
+  <si>
+    <t>Thread-29, avg=0</t>
+  </si>
+  <si>
+    <t>Thread-27, avg=0</t>
+  </si>
+  <si>
+    <t>Thread-22, avg=1</t>
+  </si>
+  <si>
+    <t>Thread-31, avg=1</t>
+  </si>
+  <si>
+    <t>Thread-13, avg=1</t>
+  </si>
+  <si>
+    <t>Thread-21, avg=1</t>
+  </si>
+  <si>
+    <t>Thread-19, avg=1</t>
+  </si>
+  <si>
+    <t>Thread-16, avg=1</t>
+  </si>
+  <si>
+    <t>Thread-30, avg=1</t>
+  </si>
+  <si>
+    <t>Thread-28, avg=1</t>
+  </si>
+  <si>
+    <t>Thread-12, avg=1</t>
+  </si>
+  <si>
+    <t>Thread-26, avg=1</t>
+  </si>
+  <si>
+    <t>Thread-20, avg=1</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>Feb 01, 2019 4:18:06 PM com.alibaba.druid.pool.DruidDataSource info</t>
+  </si>
+  <si>
+    <t>Thread-516, avg=1</t>
+  </si>
+  <si>
+    <t>Thread-490, avg=1</t>
+  </si>
+  <si>
+    <t>Thread-326, avg=1</t>
+  </si>
+  <si>
+    <t>Thread-647, avg=1</t>
+  </si>
+  <si>
+    <t>Thread-892, avg=1</t>
+  </si>
+  <si>
+    <t>Thread-464, avg=2</t>
+  </si>
+  <si>
+    <t>Thread-463, avg=2</t>
+  </si>
+  <si>
+    <t>Thread-301, avg=2</t>
+  </si>
+  <si>
+    <t>Thread-82, avg=2</t>
+  </si>
+  <si>
+    <t>Thread-971, avg=2</t>
+  </si>
+  <si>
+    <t>Thread-103, avg=5</t>
+  </si>
+  <si>
+    <t>Thread-702, avg=5</t>
+  </si>
+  <si>
+    <t>Thread-125, avg=18</t>
+  </si>
+  <si>
+    <t>Thread-31, avg=18</t>
+  </si>
+  <si>
+    <t>Thread-127, avg=19</t>
+  </si>
+  <si>
+    <t>Thread-19, avg=19</t>
+  </si>
+  <si>
+    <t>Thread-161, avg=18</t>
+  </si>
+  <si>
+    <t>Thread-890, avg=18</t>
+  </si>
+  <si>
+    <t>Thread-935, avg=18</t>
+  </si>
+  <si>
+    <t>Thread-167, avg=18</t>
+  </si>
+  <si>
+    <t>Thread-33, avg=18</t>
+  </si>
+  <si>
+    <t>Thread-55, avg=19</t>
+  </si>
+  <si>
+    <t>threads=1024</t>
+  </si>
+  <si>
+    <t>1024x1024 = 1 million</t>
+  </si>
+  <si>
+    <t>2G mac, mysql in docker
+db.initSize=1
+db.minSize=1
+db.maxSize=8
+mysql=MysqlConnectionPoolDataSource</t>
+  </si>
+  <si>
+    <t>threads=32</t>
+  </si>
+  <si>
+    <t>13 [Thread-2] INFO com.zaxxer.hikari.HikariDataSource - HikariPool-1 - Started.</t>
+  </si>
+  <si>
+    <t>Thread-496, avg=1</t>
+  </si>
+  <si>
+    <t>Thread-584, avg=1</t>
+  </si>
+  <si>
+    <t>Thread-580, avg=1</t>
+  </si>
+  <si>
+    <t>Thread-484, avg=1</t>
+  </si>
+  <si>
+    <t>Thread-931, avg=1</t>
+  </si>
+  <si>
+    <t>Thread-187, avg=1</t>
+  </si>
+  <si>
+    <t>Thread-189, avg=1</t>
+  </si>
+  <si>
+    <t>Thread-781, avg=1</t>
+  </si>
+  <si>
+    <t>Thread-782, avg=1</t>
+  </si>
+  <si>
+    <t>Thread-385, avg=1</t>
+  </si>
+  <si>
+    <t>Thread-481, avg=2</t>
+  </si>
+  <si>
+    <t>Thread-1001, avg=2</t>
+  </si>
+  <si>
+    <t>Thread-919, avg=2</t>
+  </si>
+  <si>
+    <t>Thread-818, avg=2</t>
+  </si>
+  <si>
+    <t>Thread-923, avg=2</t>
+  </si>
+  <si>
+    <t>Thread-995, avg=2</t>
+  </si>
+  <si>
+    <t>Thread-1008, avg=2</t>
+  </si>
+  <si>
+    <t>Thread-997, avg=2</t>
+  </si>
+  <si>
+    <t>Thread-925, avg=2</t>
+  </si>
+  <si>
+    <t>Thread-915, avg=2</t>
+  </si>
+  <si>
+    <t>Thread-197, avg=12</t>
+  </si>
+  <si>
+    <t>Thread-322, avg=12</t>
+  </si>
+  <si>
+    <t>Thread-596, avg=11</t>
+  </si>
+  <si>
+    <t>Thread-261, avg=11</t>
+  </si>
+  <si>
+    <t>Thread-58, avg=12</t>
+  </si>
+  <si>
+    <t>Thread-255, avg=12</t>
+  </si>
+  <si>
+    <t>Thread-26, avg=12</t>
+  </si>
+  <si>
+    <t>Thread-86, avg=12</t>
+  </si>
+  <si>
+    <t>Thread-294, avg=12</t>
+  </si>
+  <si>
+    <t>Thread-16, avg=12</t>
+  </si>
+  <si>
+    <t>Thread-821, avg=11</t>
+  </si>
+  <si>
+    <t>Thread-753, avg=11</t>
+  </si>
+  <si>
+    <t>Thread-1015, avg=10</t>
+  </si>
+  <si>
+    <t>Thread-686, avg=11</t>
+  </si>
+  <si>
+    <t>Thread-888, avg=11</t>
+  </si>
+  <si>
+    <t>Thread-852, avg=11</t>
+  </si>
+  <si>
+    <t>Thread-965, avg=10</t>
+  </si>
+  <si>
+    <t>Thread-736, avg=11</t>
+  </si>
+  <si>
+    <t>Thread-834, avg=11</t>
+  </si>
+  <si>
+    <t>Thread-994, avg=11</t>
+  </si>
+  <si>
+    <t>stable</t>
+  </si>
+  <si>
+    <t>stable and good</t>
+  </si>
+  <si>
+    <t>Thread-515, avg=49</t>
+  </si>
+  <si>
+    <t>Thread-54, avg=49</t>
+  </si>
+  <si>
+    <t>Thread-238, avg=49</t>
+  </si>
+  <si>
+    <t>Thread-90, avg=49</t>
+  </si>
+  <si>
+    <t>Thread-24, avg=49</t>
+  </si>
+  <si>
+    <t>Thread-182, avg=49</t>
+  </si>
+  <si>
+    <t>Thread-78, avg=35</t>
+  </si>
+  <si>
+    <t>Thread-4, avg=49</t>
+  </si>
+  <si>
+    <t>Thread-298, avg=49</t>
+  </si>
+  <si>
+    <t>Thread-186, avg=49</t>
+  </si>
+  <si>
+    <t>after some tests, bad and some give exception -  - All connections in the Universal Connection Pool are in use</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1204,13 +1876,33 @@
       <name val="Menlo"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1227,7 +1919,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1243,8 +1935,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1584,1239 +2294,1265 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H103"/>
+  <dimension ref="A1:H105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="27.1640625" customWidth="1"/>
-    <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1"/>
-    <col min="6" max="6" width="27.1640625" customWidth="1"/>
-    <col min="7" max="7" width="23.1640625" customWidth="1"/>
-    <col min="8" max="8" width="26.1640625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" s="5" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="31" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" ht="31" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="168" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="8" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>368</v>
+      </c>
+      <c r="B3" t="s">
+        <v>368</v>
+      </c>
+      <c r="C3" t="s">
+        <v>368</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3" t="s">
+        <v>369</v>
+      </c>
+      <c r="F3" t="s">
+        <v>369</v>
+      </c>
+      <c r="G3" t="s">
+        <v>369</v>
+      </c>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>373</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>373</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>373</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4" t="s">
+        <v>373</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>373</v>
       </c>
       <c r="G4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>373</v>
+      </c>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>333</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>335</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>370</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5" t="s">
+        <v>333</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>335</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" t="s">
-        <v>16</v>
+        <v>370</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>34</v>
+      </c>
+      <c r="E12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>40</v>
+      </c>
+      <c r="E13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C18" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B20" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C20" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B21" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C21" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C22" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B23" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C23" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B24" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C24" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B25" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C25" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B26" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C26" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B27" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C27" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B28" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C28" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B29" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C29" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B30" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C30" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B31" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C31" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B32" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C32" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B33" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="C33" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B34" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C34" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B35" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C35" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B36" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C36" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B37" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="C37" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B38" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="C38" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B39" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C39" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B40" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="C40" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B41" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="C41" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="B42" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C42" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B43" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="C43" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="B44" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="C44" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B45" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C45" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="B46" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="C46" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="B47" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="C47" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B48" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="C48" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B49" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="C49" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B50" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="C50" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="B51" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="C51" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="B52" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="C52" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B53" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="C53" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="B54" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="C54" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B55" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="C55" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B56" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="C56" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="B57" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="C57" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B58" t="s">
-        <v>41</v>
+        <v>179</v>
       </c>
       <c r="C58" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B59" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C59" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B60" t="s">
-        <v>195</v>
+        <v>36</v>
       </c>
       <c r="C60" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="B61" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="C61" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="B62" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="C62" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="B63" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="C63" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="B64" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="C64" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="B65" t="s">
-        <v>53</v>
+        <v>199</v>
       </c>
       <c r="C65" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B66" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C66" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="B67" t="s">
-        <v>215</v>
+        <v>48</v>
       </c>
       <c r="C67" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="B68" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C68" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="B69" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="C69" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="B70" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="C70" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="B71" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="C71" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B72" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="C72" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="B73" t="s">
-        <v>68</v>
+        <v>222</v>
       </c>
       <c r="C73" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B74" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="C74" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="B75" t="s">
-        <v>238</v>
+        <v>63</v>
       </c>
       <c r="C75" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="B76" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="C76" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="B77" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="C77" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="B78" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="C78" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="B79" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="C79" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="B80" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C80" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="B81" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="C81" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="B82" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="C82" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="B83" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="C83" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="B84" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="C84" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="B85" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="C85" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="B86" t="s">
-        <v>77</v>
+        <v>260</v>
       </c>
       <c r="C86" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="B87" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="C87" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="B88" t="s">
-        <v>276</v>
+        <v>72</v>
       </c>
       <c r="C88" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="B89" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C89" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="B90" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="C90" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="B91" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="C91" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="B92" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="C92" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="B93" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="C93" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="B94" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C94" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="B95" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="C95" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="B96" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="C96" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="B97" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="C97" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="B98" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="C98" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="B99" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="C99" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="B100" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="C100" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="B101" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="C101" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="B102" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="C102" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="B103" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="C103" t="s">
-        <v>322</v>
+        <v>309</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>314</v>
+      </c>
+      <c r="B104" t="s">
+        <v>313</v>
+      </c>
+      <c r="C104" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>317</v>
+      </c>
+      <c r="B105" t="s">
+        <v>316</v>
+      </c>
+      <c r="C105" t="s">
+        <v>315</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:XFD1"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -2825,271 +3561,721 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:17" s="4" customFormat="1" ht="26" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q2" s="3"/>
+    <row r="1" spans="1:17" s="4" customFormat="1" ht="215" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>324</v>
+        <v>321</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>318</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>324</v>
+        <v>318</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>318</v>
       </c>
       <c r="Q3" s="3"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>325</v>
+        <v>369</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>369</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>325</v>
+        <v>369</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>369</v>
       </c>
       <c r="Q4" s="3"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>329</v>
+        <v>373</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>373</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>326</v>
+        <v>373</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>373</v>
       </c>
       <c r="Q5" s="3"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>327</v>
+        <v>322</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>333</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>327</v>
+        <v>335</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>319</v>
       </c>
       <c r="Q6" s="3"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>330</v>
+        <v>320</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>320</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>365</v>
+        <v>320</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>320</v>
       </c>
       <c r="Q7" s="3"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>331</v>
+        <v>323</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>347</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>366</v>
+        <v>336</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>358</v>
       </c>
       <c r="Q8" s="3"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>332</v>
+        <v>324</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>334</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>367</v>
+        <v>337</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>359</v>
       </c>
       <c r="Q9" s="3"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>333</v>
+        <v>325</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>348</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>368</v>
+        <v>338</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>360</v>
       </c>
       <c r="Q10" s="3"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>334</v>
+        <v>326</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>349</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>369</v>
+        <v>339</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>361</v>
       </c>
       <c r="Q11" s="3"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>335</v>
+        <v>327</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>350</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>370</v>
+        <v>340</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>362</v>
       </c>
       <c r="Q12" s="3"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>336</v>
+        <v>328</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>351</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>371</v>
+        <v>341</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>363</v>
       </c>
       <c r="Q13" s="3"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>337</v>
+        <v>329</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>352</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>372</v>
+        <v>342</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>364</v>
       </c>
       <c r="Q14" s="3"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>338</v>
+        <v>330</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>353</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>373</v>
+        <v>343</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>365</v>
       </c>
       <c r="Q15" s="3"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>339</v>
+        <v>331</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>354</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="M16" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C18" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C19" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="17" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E17" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="18" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E18" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E19" s="3"/>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E21" s="3"/>
+      <c r="C24" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C37" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C38" s="3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="3"/>
+      <c r="C57" s="3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C58" s="10" t="s">
+        <v>443</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:XFD1"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -3098,12 +4284,849 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G81" sqref="G81"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="120" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C35" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C36" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C37" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C38" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C39" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C40" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C41" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C42" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C43" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C44" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C45" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C46" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C47" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C48" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="49" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C49" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="50" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C50" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="G50" s="3"/>
+    </row>
+    <row r="51" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C51" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="G51" s="3"/>
+    </row>
+    <row r="52" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C52" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="53" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C53" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="G53" s="3"/>
+    </row>
+    <row r="54" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C54" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="E54" s="3"/>
+      <c r="G54" s="3"/>
+    </row>
+    <row r="55" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C55" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="56" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C56" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="57" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C57" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="58" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C58" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="59" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C59" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="60" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C60" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="61" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C61" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="62" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C62" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="63" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C63" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="64" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C64" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="65" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C65" s="10" t="s">
+        <v>587</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>588</v>
+      </c>
+      <c r="G65" s="8" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="66" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C66" s="3"/>
+    </row>
+    <row r="67" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C67" s="3"/>
+      <c r="G67" s="3" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="68" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="G68" s="3" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="69" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="G69" s="3" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="70" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="G70" s="3" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="71" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="G71" s="3" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="72" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="G72" s="3" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="73" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="G73" s="3" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="74" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="G74" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="75" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="G75" s="3" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="76" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="G76" s="3" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="77" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="G77" s="3" t="s">
+        <v>598</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
